--- a/ConceptMap-R5-AppointmentResponse-elements-for-R4-AppointmentResponse.xlsx
+++ b/ConceptMap-R5-AppointmentResponse-elements-for-R4-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.0234421-06:00</t>
+    <t>2026-02-09T22:05:43.4660182-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -183,9 +183,6 @@
     <t>proposedNewTime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AppointmentResponse.proposedNewTime</t>
-  </si>
-  <si>
     <t>AppointmentResponse.start</t>
   </si>
   <si>
@@ -246,25 +243,16 @@
     <t>recurring</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AppointmentResponse.recurring</t>
-  </si>
-  <si>
     <t>AppointmentResponse.occurrenceDate</t>
   </si>
   <si>
     <t>occurrenceDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AppointmentResponse.occurrenceDate</t>
-  </si>
-  <si>
     <t>AppointmentResponse.recurrenceId</t>
   </si>
   <si>
     <t>recurrenceId</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AppointmentResponse.recurrenceId</t>
   </si>
 </sst>
 </file>
@@ -672,124 +660,124 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>

--- a/ConceptMap-R5-AppointmentResponse-elements-for-R4-AppointmentResponse.xlsx
+++ b/ConceptMap-R5-AppointmentResponse-elements-for-R4-AppointmentResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4660182-06:00</t>
+    <t>2026-02-17T14:42:26.9840937-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
